--- a/SNPs.xlsx
+++ b/SNPs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d2ffe4f625d70f8/Documents/MSc HDA/Translational Data Sciences/BEES_TDS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catri\OneDrive\Documents\MSc HDA\Translational Data Sciences\BEES_TDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C01B0D7E-1A2F-4D92-B552-0A968E4FB1E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{33C78737-4BB9-4D60-8914-56DD1ECA5C20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="940" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
